--- a/biology/Médecine/Cancer_du_scrotum/Cancer_du_scrotum.xlsx
+++ b/biology/Médecine/Cancer_du_scrotum/Cancer_du_scrotum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cancer du scrotum est très rare (épithéliomas le plus souvent, et beaucoup plus rarement mélanomes, rhabdomyosarcomes ou liposarcomes)[1].
-Il semble toujours induit par l'exposition (jusqu'à plus de 10 ans avant) à des carcinogènes : créosote, pétrole, suies ou goudrons. Le chirurgien anglais Percivall Pott (1714-1788) avait déjà remarqué que les enfants qui étaient autrefois (pour leur petite taille) employés à ramoner les cheminées étaient beaucoup plus nombreux à développer un cancer du scrotum à l'âge adulte, vers l'âge de 20 ans[2], ce qui a été un des premiers indices de causes environnementales pour certains cancers[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cancer du scrotum est très rare (épithéliomas le plus souvent, et beaucoup plus rarement mélanomes, rhabdomyosarcomes ou liposarcomes).
+Il semble toujours induit par l'exposition (jusqu'à plus de 10 ans avant) à des carcinogènes : créosote, pétrole, suies ou goudrons. Le chirurgien anglais Percivall Pott (1714-1788) avait déjà remarqué que les enfants qui étaient autrefois (pour leur petite taille) employés à ramoner les cheminées étaient beaucoup plus nombreux à développer un cancer du scrotum à l'âge adulte, vers l'âge de 20 ans, ce qui a été un des premiers indices de causes environnementales pour certains cancers.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Dissémination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle se fait en passant par les tissus inguinaux superficiels et sous-inguinaux.
 </t>
@@ -543,7 +557,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Excision de la lésion, et éventuellement curage inguinal si un faible nombre de ganglions sont touchés par des métastases (moins de trois).
 Sans métastases ganglionnaires, 50 % des patients opérés survivent à 5 ans. Ils sont moins de 20 % s'il y a métastases ganglionnaires.
